--- a/Test Procedure/Symptom Checker/ColdSore.xlsx
+++ b/Test Procedure/Symptom Checker/ColdSore.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="3">
   <si>
-    <t>Pollen Allergy</t>
+    <t>Cold Sore</t>
   </si>
   <si>
     <t>Bronchitis</t>
-  </si>
-  <si>
-    <t>Migraines</t>
   </si>
   <si>
     <t>Anemia</t>
@@ -376,7 +373,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -384,7 +381,7 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -392,7 +389,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -400,7 +397,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -411,7 +408,7 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -444,7 +441,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -455,7 +452,7 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -466,7 +463,7 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -477,7 +474,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -499,7 +496,7 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -510,7 +507,7 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -524,7 +521,7 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -538,7 +535,7 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -552,7 +549,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -580,7 +577,7 @@
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -594,7 +591,7 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -608,7 +605,7 @@
         <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -622,7 +619,7 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -636,7 +633,7 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -650,7 +647,7 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -684,7 +681,7 @@
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -701,7 +698,7 @@
         <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -755,7 +752,7 @@
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Test Procedure/Symptom Checker/ColdSore.xlsx
+++ b/Test Procedure/Symptom Checker/ColdSore.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mason/Documents/Senior-Design-2-Electric-Boogaloo/Test Procedure/Symptom Checker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Cold Sore" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,8 +41,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,14 +71,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -112,12 +131,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -144,14 +163,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,6 +198,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,46 +374,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <f>COUNTIF(B:B, "Cold Sore")</f>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:L2" si="0">COUNTIF(C:C, "Cold Sore")</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>SUM(F2:J2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <f>COUNTIF(B:B, "*")</f>
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:L3" si="1">COUNTIF(C:C, "*")</f>
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>SUM(F3:J3)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="1">
+        <f>F2/F3</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:L4" si="2">G2/G3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87096774193548387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50</v>
       </c>
@@ -400,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -411,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -422,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -433,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -444,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>29</v>
       </c>
@@ -455,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>29</v>
       </c>
@@ -466,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>29</v>
       </c>
@@ -477,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>47</v>
       </c>
@@ -488,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>47</v>
       </c>
@@ -499,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>48</v>
       </c>
@@ -510,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -524,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -538,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -552,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -566,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -580,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -594,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>29</v>
       </c>
@@ -608,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>29</v>
       </c>
@@ -622,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>29</v>
       </c>
@@ -636,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>47</v>
       </c>
@@ -650,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -667,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -684,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -701,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -718,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -735,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
